--- a/medicine/Psychotrope/Liqueur_de_café/Liqueur_de_café.xlsx
+++ b/medicine/Psychotrope/Liqueur_de_café/Liqueur_de_café.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Liqueur_de_caf%C3%A9</t>
+          <t>Liqueur_de_café</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La liqueur de café est une liqueur à base de café, de sucre et d'eau-de-vie, pouvant être consommée telle quelle, mais aussi utilisée comme ingrédient de dessert ou de cocktail. Elle serait apparue en Jamaïque au XVIIe siècle. En Europe, elle est très populaire en Galice, considérée comme une liqueur traditionnelle[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La liqueur de café est une liqueur à base de café, de sucre et d'eau-de-vie, pouvant être consommée telle quelle, mais aussi utilisée comme ingrédient de dessert ou de cocktail. Elle serait apparue en Jamaïque au XVIIe siècle. En Europe, elle est très populaire en Galice, considérée comme une liqueur traditionnelle.
 Elle peut être dégustée avec des glaçons, ou réchauffée et nappée d'un nuage de crème fraiche. Sa consommation est parfois associée à celle d'un cigare. Il en existe de nombreuses variétés, aromatisées de nombreux autres ingrédients, comme la vanille.
 </t>
         </is>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Liqueur_de_caf%C3%A9</t>
+          <t>Liqueur_de_café</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Cocktails utilisant la liqueur de café</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Ami corse (avec du Get 27 et de la Chartreuse)
 B-52 (avec du Baileys et du Grand Marnier)
@@ -532,7 +546,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Liqueur_de_caf%C3%A9</t>
+          <t>Liqueur_de_café</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -550,7 +564,9 @@
           <t>Quelques marques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>After Diner
 Café Rica
